--- a/Data_frame/balancos_definitivos/ASSM4.xlsx
+++ b/Data_frame/balancos_definitivos/ASSM4.xlsx
@@ -5323,9 +5323,7 @@
       <c r="Y57" t="n">
         <v>2011</v>
       </c>
-      <c r="Z57" t="n">
-        <v>-5214</v>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>2039</v>
       </c>
@@ -5408,9 +5406,7 @@
       <c r="Y58" t="n">
         <v>-145</v>
       </c>
-      <c r="Z58" t="n">
-        <v>347</v>
-      </c>
+      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>-198</v>
       </c>
@@ -5493,9 +5489,7 @@
       <c r="Y59" t="n">
         <v>1866</v>
       </c>
-      <c r="Z59" t="n">
-        <v>-4867</v>
-      </c>
+      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>1841</v>
       </c>
@@ -5578,9 +5572,7 @@
       <c r="Y60" t="n">
         <v>-1126</v>
       </c>
-      <c r="Z60" t="n">
-        <v>5470</v>
-      </c>
+      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>-1261</v>
       </c>
@@ -5663,9 +5655,7 @@
       <c r="Y61" t="n">
         <v>740</v>
       </c>
-      <c r="Z61" t="n">
-        <v>603</v>
-      </c>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>580</v>
       </c>
@@ -5748,9 +5738,7 @@
       <c r="Y62" t="n">
         <v>-156</v>
       </c>
-      <c r="Z62" t="n">
-        <v>588</v>
-      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>-147</v>
       </c>
@@ -5833,9 +5821,7 @@
       <c r="Y63" t="n">
         <v>-617</v>
       </c>
-      <c r="Z63" t="n">
-        <v>3383</v>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>-452</v>
       </c>
@@ -5846,84 +5832,32 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6003,9 +5937,7 @@
       <c r="Y65" t="n">
         <v>6</v>
       </c>
-      <c r="Z65" t="n">
-        <v>-82</v>
-      </c>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="n">
         <v>5</v>
       </c>
@@ -6088,9 +6020,7 @@
       <c r="Y66" t="n">
         <v>-35</v>
       </c>
-      <c r="Z66" t="n">
-        <v>71</v>
-      </c>
+      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>-28</v>
       </c>
@@ -6173,9 +6103,7 @@
       <c r="Y67" t="n">
         <v>9</v>
       </c>
-      <c r="Z67" t="n">
-        <v>57</v>
-      </c>
+      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
@@ -6258,9 +6186,7 @@
       <c r="Y68" t="n">
         <v>54</v>
       </c>
-      <c r="Z68" t="n">
-        <v>1040</v>
-      </c>
+      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>-160</v>
       </c>
@@ -6343,9 +6269,7 @@
       <c r="Y69" t="n">
         <v>308</v>
       </c>
-      <c r="Z69" t="n">
-        <v>-35</v>
-      </c>
+      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>66</v>
       </c>
@@ -6428,9 +6352,7 @@
       <c r="Y70" t="n">
         <v>-254</v>
       </c>
-      <c r="Z70" t="n">
-        <v>1075</v>
-      </c>
+      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>-226</v>
       </c>
@@ -6513,9 +6435,7 @@
       <c r="Y71" t="n">
         <v>0</v>
       </c>
-      <c r="Z71" t="n">
-        <v>1108</v>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -6598,9 +6518,7 @@
       <c r="Y72" t="n">
         <v>0</v>
       </c>
-      <c r="Z72" t="n">
-        <v>-3667</v>
-      </c>
+      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -6683,9 +6601,7 @@
       <c r="Y73" t="n">
         <v>0</v>
       </c>
-      <c r="Z73" t="n">
-        <v>4775</v>
-      </c>
+      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -6768,9 +6684,7 @@
       <c r="Y74" t="n">
         <v>1</v>
       </c>
-      <c r="Z74" t="n">
-        <v>6768</v>
-      </c>
+      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>-202</v>
       </c>
@@ -6853,9 +6767,7 @@
       <c r="Y75" t="n">
         <v>9</v>
       </c>
-      <c r="Z75" t="n">
-        <v>-19</v>
-      </c>
+      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>9</v>
       </c>
@@ -6938,9 +6850,7 @@
       <c r="Y76" t="n">
         <v>0</v>
       </c>
-      <c r="Z76" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
         <v>0</v>
       </c>
@@ -7023,9 +6933,7 @@
       <c r="Y77" t="n">
         <v>0</v>
       </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -7108,9 +7016,7 @@
       <c r="Y78" t="n">
         <v>0</v>
       </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -7121,84 +7027,32 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7278,9 +7132,7 @@
       <c r="Y80" t="n">
         <v>10</v>
       </c>
-      <c r="Z80" t="n">
-        <v>6749</v>
-      </c>
+      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>-193</v>
       </c>
